--- a/module_list_testing.xlsx
+++ b/module_list_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\ctking\Python\py files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D041F4-EDB4-482D-B8CC-FCA1232D3339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45DCC86-B6DE-4791-85CD-71B147A709B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AA8FC4FB-EFA9-4F21-8B5C-44A4469684BC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Module Type</t>
   </si>
@@ -102,9 +102,6 @@
     <t>GSD type</t>
   </si>
   <si>
-    <t>kdr</t>
-  </si>
-  <si>
     <t>eco</t>
   </si>
   <si>
@@ -133,6 +130,33 @@
   </si>
   <si>
     <t>tets</t>
+  </si>
+  <si>
+    <t>et200</t>
+  </si>
+  <si>
+    <t>~stp_fr</t>
+  </si>
+  <si>
+    <t>~oc_fr</t>
+  </si>
+  <si>
+    <t>~start_scan</t>
+  </si>
+  <si>
+    <t>~stop_scan</t>
+  </si>
+  <si>
+    <t>handshake_top</t>
+  </si>
+  <si>
+    <t>~handshake_top</t>
+  </si>
+  <si>
+    <t>handshake_bot</t>
+  </si>
+  <si>
+    <t>~handshake_bot</t>
   </si>
 </sst>
 </file>
@@ -508,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38102B46-502E-4B20-8DFC-5A5F94820E87}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,12 +544,12 @@
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="6" max="8" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -537,7 +561,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,38 +577,44 @@
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>141101</v>
       </c>
@@ -598,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1102</v>
+        <v>141102</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -607,8 +637,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>141102</v>
       </c>
@@ -619,12 +651,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <f>B4 -$C$1</f>
-        <v>1101</v>
+        <f>B4</f>
+        <v>141101</v>
       </c>
       <c r="F5" s="1">
-        <f>B7 -$C$1</f>
-        <v>1104</v>
+        <f>B7</f>
+        <v>141104</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -633,8 +665,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>141103</v>
       </c>
@@ -653,8 +687,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>141104</v>
       </c>
@@ -665,12 +701,12 @@
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <f>B5 -$C$1</f>
-        <v>1102</v>
+        <f>B5</f>
+        <v>141102</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F14" si="0">B8 -$C$1</f>
-        <v>1105</v>
+        <f>B8</f>
+        <v>141105</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -679,8 +715,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>141105</v>
       </c>
@@ -691,12 +729,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:E15" si="1">B7 -$C$1</f>
-        <v>1104</v>
+        <f>B7</f>
+        <v>141104</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>1106</v>
+        <f>B9</f>
+        <v>141106</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -705,8 +743,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>141106</v>
       </c>
@@ -717,12 +757,12 @@
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>1105</v>
+        <f>B8</f>
+        <v>141105</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>1107</v>
+        <f>B10</f>
+        <v>141107</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -731,8 +771,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>141107</v>
       </c>
@@ -743,12 +785,12 @@
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>1106</v>
+        <f>B9</f>
+        <v>141106</v>
       </c>
       <c r="F10" s="1">
-        <f>B12 -$C$1</f>
-        <v>1109</v>
+        <f>B12</f>
+        <v>141109</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -757,8 +799,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>141108</v>
       </c>
@@ -777,8 +821,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>141109</v>
       </c>
@@ -789,12 +835,12 @@
         <v>10</v>
       </c>
       <c r="E12" s="1">
-        <f>B10 -$C$1</f>
-        <v>1107</v>
+        <f>B10</f>
+        <v>141107</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>1110</v>
+        <f>B13</f>
+        <v>141110</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -803,8 +849,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>141110</v>
       </c>
@@ -815,12 +863,12 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>1109</v>
+        <f>B12</f>
+        <v>141109</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>1111</v>
+        <f>B14</f>
+        <v>141111</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -829,8 +877,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>141111</v>
       </c>
@@ -841,12 +891,12 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>1110</v>
+        <f>B13</f>
+        <v>141110</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>1112</v>
+        <f>B15</f>
+        <v>141112</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -855,8 +905,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>141112</v>
       </c>
@@ -867,8 +919,8 @@
         <v>13</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>1111</v>
+        <f>B14</f>
+        <v>141111</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -880,30 +932,46 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -913,18 +981,18 @@
         <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>1101</v>
+        <v>141101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
         <v>600</v>
@@ -936,166 +1004,166 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>1102</v>
+        <v>141102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>620</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E30" si="2">D20</f>
+        <f t="shared" ref="E20:E30" si="0">D20</f>
         <v>620</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>1103</v>
+        <v>141103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1">
         <v>640</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>1104</v>
+        <v>141104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
         <v>642</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>642</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>1105</v>
+        <v>141105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
         <v>644</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>1106</v>
+        <v>141106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>650</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>1107</v>
+        <v>141107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
         <v>667</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>667</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>1108</v>
+        <v>141108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
         <v>690</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>690</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>1109</v>
+        <v>141109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1">
         <v>700</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>1110</v>
+        <v>141110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>712</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>712</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>1111</v>
+        <v>141111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1">
         <v>718</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>718</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>1112</v>
+        <v>141112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1">
         <v>725</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>725</v>
       </c>
     </row>
